--- a/Learn-Typescript/Typescript Progress Tracker.xlsx
+++ b/Learn-Typescript/Typescript Progress Tracker.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\experiments\Learn-Typescript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\experiments\Learn-Typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3B1F70-F715-4D4B-B1CA-19161DC239C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
   <si>
     <t>Sl No.</t>
   </si>
@@ -162,13 +164,79 @@
   </si>
   <si>
     <t>Implementation of &lt;T&gt; type</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TiSGujM22OI</t>
+  </si>
+  <si>
+    <t>Introduction &amp; Setup</t>
+  </si>
+  <si>
+    <t>Compiling TypeScript</t>
+  </si>
+  <si>
+    <t>Type Basics</t>
+  </si>
+  <si>
+    <t>Objects &amp; Arrays</t>
+  </si>
+  <si>
+    <t>Explicit Types</t>
+  </si>
+  <si>
+    <t>Dynamic (any) Types</t>
+  </si>
+  <si>
+    <t>Better Workflow &amp; tsconfig</t>
+  </si>
+  <si>
+    <t>Function Basics</t>
+  </si>
+  <si>
+    <t>Type Aliases</t>
+  </si>
+  <si>
+    <t>Function Signatures</t>
+  </si>
+  <si>
+    <t>The DOM &amp; Type Casting</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>Public, Private &amp; Readonly</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>Interfaces</t>
+  </si>
+  <si>
+    <t>Interfaces with Classes</t>
+  </si>
+  <si>
+    <t>Rendering an HTML Template</t>
+  </si>
+  <si>
+    <t>Generics</t>
+  </si>
+  <si>
+    <t>Enums</t>
+  </si>
+  <si>
+    <t>Tuples</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2pZmKW9-I_k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +254,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -235,10 +311,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,8 +332,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -534,18 +615,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="95.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -574,7 +655,9 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>7</v>
@@ -587,7 +670,9 @@
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
         <v>16</v>
@@ -600,7 +685,9 @@
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -613,7 +700,9 @@
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
         <v>12</v>
@@ -626,7 +715,9 @@
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
@@ -639,7 +730,9 @@
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
         <v>15</v>
@@ -652,7 +745,9 @@
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4" t="s">
         <v>18</v>
@@ -665,7 +760,9 @@
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
         <v>20</v>
@@ -678,7 +775,9 @@
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
         <v>22</v>
@@ -691,7 +790,9 @@
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
         <v>24</v>
@@ -704,7 +805,9 @@
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
     </row>
@@ -715,7 +818,9 @@
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4" t="s">
         <v>41</v>
@@ -728,7 +833,9 @@
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
     </row>
@@ -739,7 +846,9 @@
       <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4" t="s">
         <v>42</v>
@@ -752,7 +861,9 @@
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
     </row>
@@ -763,7 +874,9 @@
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
@@ -776,7 +889,9 @@
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4" t="s">
         <v>40</v>
@@ -789,7 +904,9 @@
       <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
@@ -802,7 +919,9 @@
       <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4" t="s">
         <v>45</v>
@@ -815,7 +934,9 @@
       <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
     </row>
@@ -826,7 +947,9 @@
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
     </row>
@@ -837,7 +960,9 @@
       <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
     </row>
@@ -848,7 +973,9 @@
       <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
     </row>
@@ -859,7 +986,9 @@
       <c r="B25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
     </row>
@@ -870,12 +999,344 @@
       <c r="B26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5A35C36C-B8F2-4118-B389-88F58EBCD045}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{3CAA3380-C3E5-4589-8BC7-AF8038B4FE4A}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{AD89FC31-5EAD-4A0F-9B4E-FB45459E983D}"/>
+    <hyperlink ref="C5:C10" r:id="rId4" display="https://www.youtube.com/watch?v=TiSGujM22OI" xr:uid="{751596CA-DB0B-4E97-AE79-2ECF162A0FB5}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{6D885461-7158-4959-97A7-92BE11D0BE71}"/>
+    <hyperlink ref="C18" r:id="rId6" xr:uid="{2AD33938-7133-40D8-BA85-D7DEE0BBF128}"/>
+    <hyperlink ref="C25" r:id="rId7" xr:uid="{A342148E-5283-4D4E-98FB-444F69997F66}"/>
+    <hyperlink ref="C12:C17" r:id="rId8" display="https://www.youtube.com/watch?v=TiSGujM22OI" xr:uid="{BDDDBDD1-6504-4E95-9622-3EC9EE338349}"/>
+    <hyperlink ref="C19:C24" r:id="rId9" display="https://www.youtube.com/watch?v=TiSGujM22OI" xr:uid="{FE97D1AC-3B38-46BE-92B6-985CBC8037A9}"/>
+    <hyperlink ref="C26" r:id="rId10" xr:uid="{65C22ECD-4632-4AF9-BFEB-397D4263E44D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BD877A-34E4-4518-A105-035B58D12158}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{BB94BB2B-AAC8-4D47-8636-8CB1BDBD32AD}"/>
+    <hyperlink ref="C3:C21" r:id="rId2" display="https://www.youtube.com/watch?v=2pZmKW9-I_k" xr:uid="{4FF9C669-838C-4720-B1B3-36BA4F715C53}"/>
+    <hyperlink ref="C22" r:id="rId3" xr:uid="{8A461561-484F-4B96-9F11-E6D0EF6C0A08}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Learn-Typescript/Typescript Progress Tracker.xlsx
+++ b/Learn-Typescript/Typescript Progress Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\experiments\Learn-Typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3B1F70-F715-4D4B-B1CA-19161DC239C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC887C79-2F5B-4AAE-920A-642F291B7A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="70">
   <si>
     <t>Sl No.</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=2pZmKW9-I_k</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Todo</t>
   </si>
 </sst>
 </file>
@@ -267,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +289,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
@@ -315,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,6 +351,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection sqref="A1:E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,7 +682,9 @@
       <c r="C2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
@@ -673,7 +699,9 @@
       <c r="C3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
@@ -688,7 +716,9 @@
       <c r="C4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
@@ -703,7 +733,9 @@
       <c r="C5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
@@ -718,7 +750,9 @@
       <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
@@ -733,7 +767,9 @@
       <c r="C7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
@@ -748,7 +784,9 @@
       <c r="C8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
@@ -763,7 +801,9 @@
       <c r="C9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
@@ -778,7 +818,9 @@
       <c r="C10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
@@ -793,7 +835,9 @@
       <c r="C11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>24</v>
       </c>
@@ -808,7 +852,9 @@
       <c r="C12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -821,7 +867,9 @@
       <c r="C13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="E13" s="4" t="s">
         <v>41</v>
       </c>
@@ -836,7 +884,9 @@
       <c r="C14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -849,7 +899,9 @@
       <c r="C15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="E15" s="4" t="s">
         <v>42</v>
       </c>
@@ -864,7 +916,9 @@
       <c r="C16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -877,7 +931,9 @@
       <c r="C17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -892,7 +948,9 @@
       <c r="C18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="E18" s="4" t="s">
         <v>40</v>
       </c>
@@ -907,7 +965,9 @@
       <c r="C19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -1027,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BD877A-34E4-4518-A105-035B58D12158}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>

--- a/Learn-Typescript/Typescript Progress Tracker.xlsx
+++ b/Learn-Typescript/Typescript Progress Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\experiments\Learn-Typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC887C79-2F5B-4AAE-920A-642F291B7A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CF7E27-B364-4AAD-9585-BF09528F23A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="70">
   <si>
     <t>Sl No.</t>
   </si>
@@ -94,9 +94,6 @@
     <t>useState hook</t>
   </si>
   <si>
-    <t>Usage of useState hook using different sata types like string, number, boolean etc</t>
-  </si>
-  <si>
     <t>useState future value</t>
   </si>
   <si>
@@ -236,6 +233,9 @@
   </si>
   <si>
     <t>Todo</t>
+  </si>
+  <si>
+    <t>Usage of useState hook using different data types like string, number, boolean etc</t>
   </si>
 </sst>
 </file>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,10 +680,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
@@ -697,10 +697,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>16</v>
@@ -714,10 +714,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -731,10 +731,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>12</v>
@@ -748,10 +748,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
@@ -765,10 +765,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
@@ -782,10 +782,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>18</v>
@@ -799,10 +799,10 @@
         <v>19</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>20</v>
@@ -816,13 +816,13 @@
         <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -830,16 +830,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -847,13 +847,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="4"/>
     </row>
@@ -862,16 +862,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -879,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -894,16 +894,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -911,13 +911,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="4"/>
     </row>
@@ -926,16 +926,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -943,16 +943,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -960,16 +960,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -977,14 +977,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -992,10 +994,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
@@ -1005,10 +1007,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -1018,10 +1020,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
@@ -1031,10 +1033,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
@@ -1044,10 +1046,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
@@ -1057,10 +1059,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
@@ -1087,7 +1089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BD877A-34E4-4518-A105-035B58D12158}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1121,10 +1123,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
@@ -1136,10 +1138,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
@@ -1149,10 +1151,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
@@ -1162,10 +1164,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
@@ -1175,10 +1177,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
@@ -1188,10 +1190,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
@@ -1201,10 +1203,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
@@ -1214,10 +1216,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
@@ -1227,10 +1229,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
@@ -1240,10 +1242,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
@@ -1253,10 +1255,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
@@ -1266,10 +1268,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
@@ -1279,10 +1281,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
@@ -1292,10 +1294,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
@@ -1305,10 +1307,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
@@ -1318,10 +1320,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
@@ -1331,10 +1333,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
@@ -1344,10 +1346,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
@@ -1357,10 +1359,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
@@ -1370,10 +1372,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
@@ -1383,10 +1385,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>

--- a/Learn-Typescript/Typescript Progress Tracker.xlsx
+++ b/Learn-Typescript/Typescript Progress Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\experiments\Learn-Typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CF7E27-B364-4AAD-9585-BF09528F23A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B9C265-090D-4FE1-8632-D0ABFB1909DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="70">
   <si>
     <t>Sl No.</t>
   </si>
@@ -643,7 +643,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -867,8 +867,8 @@
       <c r="C13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>67</v>
+      <c r="D13" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>40</v>
@@ -999,7 +999,9 @@
       <c r="C21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1012,7 +1014,9 @@
       <c r="C22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">

--- a/Learn-Typescript/Typescript Progress Tracker.xlsx
+++ b/Learn-Typescript/Typescript Progress Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\experiments\Learn-Typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B9C265-090D-4FE1-8632-D0ABFB1909DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDFF4A7-CA9E-4EA1-A150-EF2506FB3E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="70">
   <si>
     <t>Sl No.</t>
   </si>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -867,8 +867,8 @@
       <c r="C13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>68</v>
+      <c r="D13" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>40</v>
@@ -931,8 +931,8 @@
       <c r="C17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>68</v>
+      <c r="D17" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>42</v>
@@ -1029,7 +1029,9 @@
       <c r="C23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1042,7 +1044,9 @@
       <c r="C24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1055,7 +1059,9 @@
       <c r="C25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1068,7 +1074,9 @@
       <c r="C26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E26" s="4"/>
     </row>
   </sheetData>

--- a/Learn-Typescript/Typescript Progress Tracker.xlsx
+++ b/Learn-Typescript/Typescript Progress Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\experiments\Learn-Typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDFF4A7-CA9E-4EA1-A150-EF2506FB3E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE9E7C0-286A-4CD3-8F15-A1C98CE8CBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -643,7 +643,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,8 +784,8 @@
       <c r="C8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>68</v>
+      <c r="D8" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>18</v>

--- a/Learn-Typescript/Typescript Progress Tracker.xlsx
+++ b/Learn-Typescript/Typescript Progress Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\experiments\Learn-Typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE9E7C0-286A-4CD3-8F15-A1C98CE8CBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9311911A-5E01-496E-A060-2065686F9744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2088" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="69">
   <si>
     <t>Sl No.</t>
   </si>
@@ -230,9 +230,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>Todo</t>
   </si>
   <si>
     <t>Usage of useState hook using different data types like string, number, boolean etc</t>
@@ -273,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,12 +292,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
@@ -333,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -354,9 +345,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -643,7 +631,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,8 +755,8 @@
       <c r="C7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>68</v>
+      <c r="D7" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
@@ -822,7 +810,7 @@
         <v>67</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">

--- a/Learn-Typescript/Typescript Progress Tracker.xlsx
+++ b/Learn-Typescript/Typescript Progress Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\experiments\Learn-Typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9311911A-5E01-496E-A060-2065686F9744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67679D59-D642-49AC-99DF-EF443F775365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2088" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="69">
   <si>
     <t>Sl No.</t>
   </si>
@@ -630,7 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1089,14 +1089,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BD877A-34E4-4518-A105-035B58D12158}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="95.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1128,7 +1129,9 @@
       <c r="C2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1143,7 +1146,9 @@
       <c r="C3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">

--- a/Learn-Typescript/Typescript Progress Tracker.xlsx
+++ b/Learn-Typescript/Typescript Progress Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\experiments\Learn-Typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67679D59-D642-49AC-99DF-EF443F775365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DD1514-39FF-4628-98C0-3D7E5B742CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="69">
   <si>
     <t>Sl No.</t>
   </si>
@@ -630,7 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1161,7 +1161,9 @@
       <c r="C4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1174,7 +1176,9 @@
       <c r="C5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1187,7 +1191,9 @@
       <c r="C6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1200,7 +1206,9 @@
       <c r="C7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1213,7 +1221,9 @@
       <c r="C8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1226,7 +1236,9 @@
       <c r="C9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1239,7 +1251,9 @@
       <c r="C10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1252,7 +1266,9 @@
       <c r="C11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1265,7 +1281,9 @@
       <c r="C12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1278,7 +1296,9 @@
       <c r="C13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1291,7 +1311,9 @@
       <c r="C14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1304,7 +1326,9 @@
       <c r="C15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1317,7 +1341,9 @@
       <c r="C16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1330,7 +1356,9 @@
       <c r="C17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1343,7 +1371,9 @@
       <c r="C18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1356,7 +1386,9 @@
       <c r="C19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1369,7 +1401,9 @@
       <c r="C20" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1382,7 +1416,9 @@
       <c r="C21" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1395,7 +1431,9 @@
       <c r="C22" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E22" s="4"/>
     </row>
   </sheetData>

--- a/Learn-Typescript/Typescript Progress Tracker.xlsx
+++ b/Learn-Typescript/Typescript Progress Tracker.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\experiments\Learn-Typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DD1514-39FF-4628-98C0-3D7E5B742CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5FC3E7-575B-49DB-8860-48C6943B16A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Link-1" sheetId="2" r:id="rId1"/>
+    <sheet name="Link-2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -627,10 +627,371 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BD877A-34E4-4518-A105-035B58D12158}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{BB94BB2B-AAC8-4D47-8636-8CB1BDBD32AD}"/>
+    <hyperlink ref="C3:C21" r:id="rId2" display="https://www.youtube.com/watch?v=2pZmKW9-I_k" xr:uid="{4FF9C669-838C-4720-B1B3-36BA4F715C53}"/>
+    <hyperlink ref="C22" r:id="rId3" xr:uid="{8A461561-484F-4B96-9F11-E6D0EF6C0A08}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1083,365 +1444,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BD877A-34E4-4518-A105-035B58D12158}">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="95.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="4"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{BB94BB2B-AAC8-4D47-8636-8CB1BDBD32AD}"/>
-    <hyperlink ref="C3:C21" r:id="rId2" display="https://www.youtube.com/watch?v=2pZmKW9-I_k" xr:uid="{4FF9C669-838C-4720-B1B3-36BA4F715C53}"/>
-    <hyperlink ref="C22" r:id="rId3" xr:uid="{8A461561-484F-4B96-9F11-E6D0EF6C0A08}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Learn-Typescript/Typescript Progress Tracker.xlsx
+++ b/Learn-Typescript/Typescript Progress Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\experiments\Learn-Typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5FC3E7-575B-49DB-8860-48C6943B16A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC97D759-075A-499D-A3AE-F831B25D6E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -270,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +292,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
@@ -324,7 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,6 +352,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -630,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BD877A-34E4-4518-A105-035B58D12158}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -991,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1291,16 +1309,16 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="C18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>39</v>
       </c>
     </row>
